--- a/TestCases/Back End/ReadMyAssessments-BackEnd-TeamLead.xlsx
+++ b/TestCases/Back End/ReadMyAssessments-BackEnd-TeamLead.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18805"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{0C977EB7-F983-47C5-BC0B-77CE6EACF4B1}" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{DCF69F22-DC63-47BD-94D6-8FC7659FEFF1}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{0C977EB7-F983-47C5-BC0B-77CE6EACF4B1}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{14097694-42C4-4EBB-997B-44A9E59D63E7}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Role: Team Lead</t>
   </si>
@@ -35,46 +35,49 @@
     <t>Pass/Fail</t>
   </si>
   <si>
-    <t>Step 1: while logged out try to enter the "view my assessments" page</t>
+    <t>Step 1: while logged out try to enter the "my assessments" page</t>
   </si>
   <si>
     <t>I am returned to the login screen</t>
   </si>
   <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Step 2: Login as a user with the correct role</t>
+  </si>
+  <si>
+    <t>I am redirected to the dashboard of the user</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Step 3: Click "My Assessments" </t>
+  </si>
+  <si>
+    <t>I am showed a list of assessments all based around me</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t xml:space="preserve">Step 2: Login as a valid user and click "My Assessments" </t>
-  </si>
-  <si>
-    <t>I am showed a list of of assessments all based around me</t>
-  </si>
-  <si>
-    <t>I am shown a list of of assessments all based around me</t>
-  </si>
-  <si>
-    <t>Step 3: From the url view a list of someone elses assessments</t>
+    <t>Step 4: From the url view a list of someone elses assessments</t>
   </si>
   <si>
     <t>I am redirected to a list of my assessments(I should not be able to see a list of other people's assessments)</t>
   </si>
   <si>
-    <t>I am shown a list of assessments related to that user</t>
-  </si>
-  <si>
-    <t>Failed: I should not be able to view assessments of a specific employee from "myassessments"</t>
-  </si>
-  <si>
-    <t>Step 4: From the url change the myassessments id to nothing</t>
+    <t>directed me to someone else's assessment</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Step 5: From the url change the myassessments id to nothing</t>
   </si>
   <si>
     <t>Redirected to a page saying access denied</t>
   </si>
   <si>
-    <t>An error page loads</t>
-  </si>
-  <si>
-    <t>Failed: The application broke. Server side error</t>
+    <t xml:space="preserve">the application threw an exception </t>
   </si>
 </sst>
 </file>
@@ -424,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -466,9 +469,6 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
@@ -480,42 +480,49 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="56.25" customHeight="1">
       <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="58.5" customHeight="1">
       <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="60.75" customHeight="1">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="60.75" customHeight="1"/>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="7" spans="1:6" ht="60.75" customHeight="1">
       <c r="F7" s="2"/>
     </row>
